--- a/comparison_table_25ns.xlsx
+++ b/comparison_table_25ns.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giadarol/Google Drive/HLLHC_WP2_20190129_filling_schemes/FillingSchemes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3136D448-9294-E64B-B2A1-EE6A1C327A21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89DD64-388C-E74E-8E9D-DC8A882A435E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="3120" windowWidth="21020" windowHeight="17440" xr2:uid="{4CDCA328-02A1-7341-A3C3-EB69CA7EB91D}"/>
+    <workbookView xWindow="360" yWindow="1700" windowWidth="27040" windowHeight="18840" xr2:uid="{4CDCA328-02A1-7341-A3C3-EB69CA7EB91D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="comparison_25ns" localSheetId="0">Sheet1!$B$3:$M$10</definedName>
+    <definedName name="comparison_25ns" localSheetId="0">Sheet1!$B$3:$N$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{2EA59760-BD57-9C41-AC86-C977093481F7}" name="comparison_25ns" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/giadarol/Google Drive/HLLHC_WP2_20190129_filling_schemes/FillingSchemes/comparison_25ns.tsv" thousands="'">
+    <textPr sourceFile="/Users/giadarol/Google Drive/HLLHC_WP2_20190129_filling_schemes/FillingSchemes/comparison_25ns.tsv" thousands="'">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Scheme name</t>
   </si>
@@ -77,12 +77,6 @@
     <t>[8, 341, 80]</t>
   </si>
   <si>
-    <t>25ns_2880b_2872_2673_2688_320bpi_12inj_800ns_bs200ns_4x80_opt</t>
-  </si>
-  <si>
-    <t>[8, 341, 111]</t>
-  </si>
-  <si>
     <t>25ns_2744b_2736_2242_2370_240bpi_13inj_800ns_bs200ns_5x48</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>[[72, 72, 72, 72], [24, 72, 72]]</t>
   </si>
   <si>
-    <t>[[80, 80, 80, 80], [24, 80]]</t>
-  </si>
-  <si>
     <t>[[80, 80, 80, 80]]</t>
   </si>
   <si>
@@ -161,7 +152,16 @@
     <t>Coll. IP8</t>
   </si>
   <si>
-    <t>Coll IP2</t>
+    <t>Coll. IP2</t>
+  </si>
+  <si>
+    <t>[[80, 80, 80, 80], [32, 80]]</t>
+  </si>
+  <si>
+    <t>[8, 341, 119]</t>
+  </si>
+  <si>
+    <t>25ns_2904b_2896_2656_2734_320bpi_12inj_800ns_bs200ns_4x80b_opt</t>
   </si>
 </sst>
 </file>
@@ -542,10 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D571952-555E-5A46-A999-35A9BA16103F}">
-  <dimension ref="B2:N10"/>
+  <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,72 +564,79 @@
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>2760</v>
@@ -645,30 +655,33 @@
         <v>2748</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3">
         <v>2560</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K4" s="3">
         <v>2495</v>
       </c>
-      <c r="L4" t="s">
-        <v>15</v>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>2844</v>
@@ -700,19 +713,23 @@
       <c r="K5" s="3">
         <v>2560</v>
       </c>
-      <c r="L5" t="s">
-        <v>16</v>
+      <c r="L5" s="3">
+        <f>100*(-1+K5/$K$4)</f>
+        <v>2.6052104208416749</v>
       </c>
       <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>2808</v>
@@ -744,61 +761,69 @@
       <c r="K6" s="3">
         <v>2618</v>
       </c>
-      <c r="L6" t="s">
-        <v>18</v>
+      <c r="L6" s="3">
+        <f t="shared" ref="L6:L10" si="3">100*(-1+K6/$K$4)</f>
+        <v>4.9298597194388671</v>
       </c>
       <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
-        <v>2880</v>
+        <v>2904</v>
       </c>
       <c r="D7" s="3">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0.92592592592592582</v>
+        <v>0.25252525252525254</v>
       </c>
       <c r="G7" s="3">
-        <v>2872</v>
+        <v>2896</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>4.512372634643369</v>
+        <v>5.3857350800582182</v>
       </c>
       <c r="I7" s="3">
-        <v>2688</v>
+        <v>2734</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="2"/>
-        <v>5.0000000000000044</v>
+        <v>6.7968749999999911</v>
       </c>
       <c r="K7" s="3">
-        <v>2673</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
+        <v>2656</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="3"/>
+        <v>6.4529058116232552</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -808,10 +833,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>2748</v>
@@ -843,19 +869,23 @@
       <c r="K9" s="3">
         <v>2253</v>
       </c>
-      <c r="L9" t="s">
-        <v>19</v>
+      <c r="L9" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.6993987975951939</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3">
         <v>2748</v>
@@ -887,21 +917,26 @@
       <c r="K10" s="3">
         <v>2258</v>
       </c>
-      <c r="L10" t="s">
-        <v>20</v>
+      <c r="L10" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.4989979959919868</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/comparison_table_25ns.xlsx
+++ b/comparison_table_25ns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giadarol/Google Drive/HLLHC_WP2_20190129_filling_schemes/FillingSchemes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89DD64-388C-E74E-8E9D-DC8A882A435E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588349BF-BBF6-9F42-AC31-192A024F74C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1700" windowWidth="27040" windowHeight="18840" xr2:uid="{4CDCA328-02A1-7341-A3C3-EB69CA7EB91D}"/>
+    <workbookView xWindow="11860" yWindow="5140" windowWidth="27040" windowHeight="18840" xr2:uid="{4CDCA328-02A1-7341-A3C3-EB69CA7EB91D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,10 +545,10 @@
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
